--- a/src/main/java/testdata/credentials.xlsx
+++ b/src/main/java/testdata/credentials.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>firstname</t>
   </si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>mJ@NHoSaEk</t>
+  </si>
+  <si>
+    <t>RZOEY</t>
+  </si>
+  <si>
+    <t>ZYLBTHZ</t>
+  </si>
+  <si>
+    <t>RZOEY_ZYLBTHZ@example.com</t>
+  </si>
+  <si>
+    <t>lG@ggAlBHy</t>
   </si>
 </sst>
 </file>
@@ -948,6 +960,20 @@
         <v>83</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{5DB36AD2-0B30-4820-B977-5EF8D48C9795}"/>
